--- a/images/metrics.xlsx
+++ b/images/metrics.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\documentos\USFQ\tesis\USFQ-RAG\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A75C0A1-298E-4AC5-BBBA-328DFA4273E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E612D21B-038D-4289-A7D5-617215DFC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C425509-4C2D-43B2-9F60-95603C68BF37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C425509-4C2D-43B2-9F60-95603C68BF37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="42" r:id="rId2"/>
-    <pivotCache cacheId="47" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="11" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="22">
   <si>
     <t>Correctness</t>
   </si>
@@ -78,9 +79,6 @@
     <t>Graph RAG 4o mini</t>
   </si>
   <si>
-    <t>Graph RAG 5o mini</t>
-  </si>
-  <si>
     <t>Suma de Score</t>
   </si>
   <si>
@@ -92,13 +90,31 @@
   <si>
     <t>Etiquetas de fila</t>
   </si>
+  <si>
+    <t>Graph RAG 5 mini</t>
+  </si>
+  <si>
+    <t>Métricas</t>
+  </si>
+  <si>
+    <t>RAGo3</t>
+  </si>
+  <si>
+    <t>GRAGo3</t>
+  </si>
+  <si>
+    <t>GRAGo4mini</t>
+  </si>
+  <si>
+    <t>GRAG5mini</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -124,15 +140,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,12 +162,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -155,11 +186,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,6 +1307,286 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1362,7 +1674,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Graph RAG 5o mini</c:v>
+                  <c:v>Graph RAG o3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1404,16 +1716,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.89888888899999997</c:v>
+                  <c:v>0.69067039100000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98872222200000004</c:v>
+                  <c:v>0.94223463699999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.922666667</c:v>
+                  <c:v>0.80536312799999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95472222200000001</c:v>
+                  <c:v>0.90586592200000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,7 +1745,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Graph RAG o3</c:v>
+                  <c:v>RAG o3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1475,16 +1787,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.69067039100000005</c:v>
+                  <c:v>0.59433333300000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94223463699999999</c:v>
+                  <c:v>0.88988888899999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80536312799999998</c:v>
+                  <c:v>0.65988888899999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90586592200000005</c:v>
+                  <c:v>0.66816666700000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,7 +1816,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RAG o3</c:v>
+                  <c:v>Graph RAG 5 mini</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1546,16 +1858,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.59433333300000002</c:v>
+                  <c:v>0.89888888899999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88988888899999996</c:v>
+                  <c:v>0.98872222200000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65988888899999998</c:v>
+                  <c:v>0.922666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66816666700000005</c:v>
+                  <c:v>0.95472222200000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,6 +2875,21 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2650,7 +2977,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Graph RAG 5o mini</c:v>
+                  <c:v>Graph RAG o3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2692,16 +3019,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.76644230800000002</c:v>
+                  <c:v>0.64224371400000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97046153800000001</c:v>
+                  <c:v>0.94365570600000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90684615400000002</c:v>
+                  <c:v>0.79361702099999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95194604999999999</c:v>
+                  <c:v>0.92156673099999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2721,7 +3048,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Graph RAG o3</c:v>
+                  <c:v>RAG o3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2763,16 +3090,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.64224371400000002</c:v>
+                  <c:v>0.78520153599999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94365570600000004</c:v>
+                  <c:v>0.92953934699999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79361702099999998</c:v>
+                  <c:v>0.83013435700000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92156673099999997</c:v>
+                  <c:v>0.83748560500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2792,7 +3119,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RAG o3</c:v>
+                  <c:v>Graph RAG 5 mini</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2834,16 +3161,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.78520153599999998</c:v>
+                  <c:v>0.76644230800000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92953934699999996</c:v>
+                  <c:v>0.97046153800000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83013435700000004</c:v>
+                  <c:v>0.90684615400000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83748560500000002</c:v>
+                  <c:v>0.95194604999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,17 +4550,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeysson Chuquin" refreshedDate="45942.802463888889" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{3EF7623F-8580-47F7-8495-793E2BA29D9E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeysson Chuquin" refreshedDate="45997.651188888885" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{3EF7623F-8580-47F7-8495-793E2BA29D9E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:C18" sheet="Hoja1"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Configuración" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems count="5">
         <s v="RAG o3"/>
         <s v="Graph RAG o3"/>
         <s v="Graph RAG 4o mini"/>
-        <s v="Graph RAG 5o mini"/>
+        <s v="Graph RAG 5 mini"/>
+        <s v="Graph RAG 5o mini" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Métrica" numFmtId="0">
@@ -4244,7 +4572,7 @@
         <s v="Retrieval_relevance"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Score" numFmtId="168">
+    <cacheField name="Score" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.59433333300000002" maxValue="0.99722222199999999"/>
     </cacheField>
   </cacheFields>
@@ -4257,17 +4585,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeysson Chuquin" refreshedDate="45942.803875810183" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{064B0CD4-A60E-48E4-BCE4-CBDE4653FCD4}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeysson Chuquin" refreshedDate="45997.65121585648" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{064B0CD4-A60E-48E4-BCE4-CBDE4653FCD4}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H2:J18" sheet="Hoja1"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Configuración" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems count="5">
         <s v="RAG o3"/>
         <s v="Graph RAG o3"/>
         <s v="Graph RAG 4o mini"/>
-        <s v="Graph RAG 5o mini"/>
+        <s v="Graph RAG 5 mini"/>
+        <s v="Graph RAG 5o mini" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Métrica" numFmtId="0">
@@ -4278,7 +4607,7 @@
         <s v="Retrieval_relevance"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Score" numFmtId="168">
+    <cacheField name="Score" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.64224371400000002" maxValue="0.98355769199999998"/>
     </cacheField>
   </cacheFields>
@@ -4461,15 +4790,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2E02FB3-9569-4D0A-B97C-B3AA0E2CD09E}" name="TablaDinámica14" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2E02FB3-9569-4D0A-B97C-B3AA0E2CD09E}" name="TablaDinámica14" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="H21:M27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="2"/>
-        <item x="3"/>
+        <item m="1" x="4"/>
         <item x="1"/>
         <item x="0"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4482,7 +4812,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -4512,22 +4842,22 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Suma de Score" fld="2" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Suma de Score" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="20">
+  <chartFormats count="21">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4788,6 +5118,18 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -4806,15 +5148,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B1CF8118-E411-4470-BE35-954F8B5ADE2C}" name="TablaDinámica13" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B1CF8118-E411-4470-BE35-954F8B5ADE2C}" name="TablaDinámica13" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A21:F27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="2"/>
-        <item x="3"/>
+        <item m="1" x="4"/>
         <item x="1"/>
         <item x="0"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4857,13 +5200,13 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -4872,7 +5215,7 @@
   <dataFields count="1">
     <dataField name="Suma de Score" fld="2" baseField="1" baseItem="2" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="23">
+  <chartFormats count="28">
     <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5178,6 +5521,66 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5514,24 +5917,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA4847B-1103-4617-ACFD-5F02ED007D35}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -5819,7 +6222,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -5828,7 +6231,7 @@
         <v>0.89888888899999997</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>0</v>
@@ -5837,9 +6240,9 @@
         <v>0.76644230800000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -5848,7 +6251,7 @@
         <v>0.98872222200000004</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>1</v>
@@ -5859,7 +6262,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -5868,7 +6271,7 @@
         <v>0.922666667</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>2</v>
@@ -5877,9 +6280,9 @@
         <v>0.90684615400000002</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -5888,7 +6291,7 @@
         <v>0.95472222200000001</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>3</v>
@@ -5899,54 +6302,54 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -5957,16 +6360,16 @@
         <v>0.85888888900000004</v>
       </c>
       <c r="C23" s="6">
+        <v>0.69067039100000005</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.59433333300000002</v>
+      </c>
+      <c r="E23" s="6">
         <v>0.89888888899999997</v>
       </c>
-      <c r="D23" s="6">
-        <v>0.69067039100000005</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0.59433333300000002</v>
-      </c>
       <c r="F23" s="6">
-        <v>3.0427815019999995</v>
+        <v>3.0427815020000004</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>0</v>
@@ -5975,13 +6378,13 @@
         <v>0.83896353199999996</v>
       </c>
       <c r="J23" s="7">
+        <v>0.64224371400000002</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.78520153599999998</v>
+      </c>
+      <c r="L23" s="7">
         <v>0.76644230800000002</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0.64224371400000002</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0.78520153599999998</v>
       </c>
       <c r="M23" s="7">
         <v>3.0328510900000003</v>
@@ -5995,16 +6398,16 @@
         <v>0.99722222199999999</v>
       </c>
       <c r="C24" s="6">
+        <v>0.94223463699999999</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.88988888899999996</v>
+      </c>
+      <c r="E24" s="6">
         <v>0.98872222200000004</v>
       </c>
-      <c r="D24" s="6">
-        <v>0.94223463699999999</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.88988888899999996</v>
-      </c>
       <c r="F24" s="6">
-        <v>3.81806797</v>
+        <v>3.8180679699999995</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>1</v>
@@ -6013,13 +6416,13 @@
         <v>0.98355769199999998</v>
       </c>
       <c r="J24" s="7">
+        <v>0.94365570600000004</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.92953934699999996</v>
+      </c>
+      <c r="L24" s="7">
         <v>0.97046153800000001</v>
-      </c>
-      <c r="K24" s="7">
-        <v>0.94365570600000004</v>
-      </c>
-      <c r="L24" s="7">
-        <v>0.92953934699999996</v>
       </c>
       <c r="M24" s="7">
         <v>3.827214283</v>
@@ -6033,13 +6436,13 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="C25" s="6">
+        <v>0.80536312799999998</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.65988888899999998</v>
+      </c>
+      <c r="E25" s="6">
         <v>0.922666667</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.80536312799999998</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0.65988888899999998</v>
       </c>
       <c r="F25" s="6">
         <v>3.352918684</v>
@@ -6051,13 +6454,13 @@
         <v>0.96046065300000005</v>
       </c>
       <c r="J25" s="7">
+        <v>0.79361702099999998</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.83013435700000004</v>
+      </c>
+      <c r="L25" s="7">
         <v>0.90684615400000002</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0.79361702099999998</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0.83013435700000004</v>
       </c>
       <c r="M25" s="7">
         <v>3.491058185</v>
@@ -6071,16 +6474,16 @@
         <v>0.97374301699999999</v>
       </c>
       <c r="C26" s="6">
+        <v>0.90586592200000005</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.66816666700000005</v>
+      </c>
+      <c r="E26" s="6">
         <v>0.95472222200000001</v>
       </c>
-      <c r="D26" s="6">
-        <v>0.90586592200000005</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0.66816666700000005</v>
-      </c>
       <c r="F26" s="6">
-        <v>3.5024978279999996</v>
+        <v>3.5024978280000001</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>3</v>
@@ -6089,13 +6492,13 @@
         <v>0.97811900200000002</v>
       </c>
       <c r="J26" s="7">
+        <v>0.92156673099999997</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.83748560500000002</v>
+      </c>
+      <c r="L26" s="7">
         <v>0.95194604999999999</v>
-      </c>
-      <c r="K26" s="7">
-        <v>0.92156673099999997</v>
-      </c>
-      <c r="L26" s="7">
-        <v>0.83748560500000002</v>
       </c>
       <c r="M26" s="7">
         <v>3.6891173880000001</v>
@@ -6103,37 +6506,37 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="6">
         <v>3.7948541279999999</v>
       </c>
       <c r="C27" s="6">
+        <v>3.3441340780000006</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2.8122777779999999</v>
+      </c>
+      <c r="E27" s="6">
         <v>3.7650000000000001</v>
-      </c>
-      <c r="D27" s="6">
-        <v>3.3441340780000006</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2.8122777779999999</v>
       </c>
       <c r="F27" s="6">
         <v>13.716265984</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="7">
         <v>3.7611008790000002</v>
       </c>
       <c r="J27" s="7">
+        <v>3.3010831719999998</v>
+      </c>
+      <c r="K27" s="7">
+        <v>3.382360845</v>
+      </c>
+      <c r="L27" s="7">
         <v>3.5956960500000004</v>
-      </c>
-      <c r="K27" s="7">
-        <v>3.3010831719999998</v>
-      </c>
-      <c r="L27" s="7">
-        <v>3.382360845</v>
       </c>
       <c r="M27" s="7">
         <v>14.040240946000001</v>
@@ -6144,4 +6547,196 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF8DE55-368B-4F3B-9446-84C95B59926D}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.59433333300000002</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.69067039100000005</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.85888888900000004</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.89888888899999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.88988888899999996</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.94223463699999999</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.99722222199999999</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.98872222200000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.65988888899999998</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.80536312799999998</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.922666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.66816666700000005</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.90586592200000005</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.97374301699999999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.95472222200000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.78520153599999998</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.64224371400000002</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.83896353199999996</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.76644230800000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.92953934699999996</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.94365570600000004</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.98355769199999998</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.97046153800000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.83013435700000004</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.79361702099999998</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.96046065300000005</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.90684615400000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.83748560500000002</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.92156673099999997</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.97811900200000002</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.95194604999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>